--- a/接口文档/商品api/品牌接口_运营端.xlsx
+++ b/接口文档/商品api/品牌接口_运营端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="查看品牌列表" sheetId="6" r:id="rId6"/>
     <sheet name="查看品牌详情" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>商品品牌接口（运营端）
 版本：1.0
@@ -117,7 +117,7 @@
 </t>
   </si>
   <si>
-    <t>PUT</t>
+    <t>http://192.168.1.120/api/catalog_mgr/brand/edit</t>
   </si>
   <si>
     <t>id</t>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>http://192.168.1.120/api/catalog_mgr/brand/delete</t>
-  </si>
-  <si>
-    <t>DELETE</t>
   </si>
   <si>
     <t>主键id</t>
@@ -1151,10 +1148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1230,9 +1227,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1246,18 +1264,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1269,47 +1308,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1328,37 +1347,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,13 +1410,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,37 +1470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,37 +1488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,49 +1506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,7 +1530,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,6 +1718,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1745,17 +1787,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1763,8 +1799,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1779,45 +1815,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1826,10 +1823,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1838,16 +1835,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1857,116 +1854,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -2451,7 +2448,7 @@
   <sheetPr/>
   <dimension ref="G7:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G7" sqref="G7:N24"/>
     </sheetView>
   </sheetViews>
@@ -2730,7 +2727,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -3011,7 +3008,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3040,7 +3037,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3051,7 +3048,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3286,7 +3283,7 @@
     <mergeCell ref="A9:A11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.120/api/catalog_mgr/brand" tooltip="http://192.168.1.120/api/catalog_mgr/brand"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.120/api/catalog_mgr/brand/edit" tooltip="http://192.168.1.120/api/catalog_mgr/brand/edit"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3300,7 +3297,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -3340,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3375,13 +3372,13 @@
         <v>21</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A6" s="13"/>
       <c r="B6" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -3389,7 +3386,7 @@
     </row>
     <row r="7" s="31" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>27</v>
@@ -3576,7 +3573,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -3598,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3665,7 +3662,7 @@
     <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="13"/>
       <c r="B10" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3674,18 +3671,18 @@
     <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="13"/>
       <c r="B11" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="13"/>
       <c r="B12" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
@@ -3694,7 +3691,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="13"/>
       <c r="B13" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>31</v>
@@ -3703,7 +3700,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="24"/>
       <c r="B14" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>19</v>
@@ -3711,136 +3708,136 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="2:5">
       <c r="B17" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="28"/>
     </row>
     <row r="18" ht="14.25" spans="2:5">
       <c r="B18" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="28"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>57</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1" spans="2:5">
       <c r="B21" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>61</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="2:5">
       <c r="B23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>63</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="2:5">
       <c r="B24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>65</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>72</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="2:2">
@@ -3883,7 +3880,7 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3902,7 +3899,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -3913,7 +3910,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3921,10 +3918,10 @@
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3985,27 +3982,27 @@
     <row r="10" ht="13.5" spans="1:2">
       <c r="A10" s="13"/>
       <c r="B10" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="13"/>
       <c r="B11" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="13"/>
       <c r="B12" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" ht="13.5" spans="1:5">
       <c r="A13" s="13"/>
       <c r="B13" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -4014,7 +4011,7 @@
     <row r="14" ht="13.5" spans="1:5">
       <c r="A14" s="24"/>
       <c r="B14" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -4022,7 +4019,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="20"/>
     </row>

--- a/接口文档/商品api/品牌接口_运营端.xlsx
+++ b/接口文档/商品api/品牌接口_运营端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="6"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>商品品牌接口（运营端）
 版本：1.0
@@ -101,7 +101,7 @@
     <t>图片名称</t>
   </si>
   <si>
-    <t>{"name":"JACKJONES","pic":"http://1111"}</t>
+    <t>{"name":"JACKJONES","intro":"haha","pic":"http://1111"}</t>
   </si>
   <si>
     <t>响应参数：</t>
@@ -129,7 +129,7 @@
     <t>sort</t>
   </si>
   <si>
-    <t>{"id":"120161103110201002","name":"JACKJONES","pic":"http://11211"}</t>
+    <t>{"id":"120161103110201002","name":"JACKJONES","pic":"http://11211","intro":"haha"}</t>
   </si>
   <si>
     <t xml:space="preserve">删除属性接口
@@ -324,6 +324,9 @@
     <t>图片</t>
   </si>
   <si>
+    <t xml:space="preserve">            "intro":"haha",</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -1101,6 +1104,9 @@
   </si>
   <si>
     <t>    "pic":"http://11211",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "intro":"haha",</t>
   </si>
   <si>
     <r>
@@ -1149,8 +1155,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -1227,8 +1233,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,16 +1271,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,6 +1291,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1285,6 +1323,20 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1293,47 +1345,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1359,13 +1372,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1410,12 +1416,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1434,6 +1434,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1446,19 +1452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,6 +1476,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1488,7 +1506,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,19 +1536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,7 +1566,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,49 +1590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,17 +1724,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1749,6 +1749,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1759,6 +1774,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1774,24 +1798,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1826,7 +1832,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1835,16 +1841,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1854,125 +1860,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2042,8 +2048,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2455,186 +2470,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2661,50 +2676,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="40">
+      <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="40">
+      <c r="A4" s="43">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="40">
+      <c r="A5" s="43">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40">
+      <c r="A6" s="43">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2726,8 +2741,8 @@
   <sheetPr/>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -2807,7 +2822,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="13"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2822,12 +2837,12 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" ht="17.1" customHeight="1" spans="1:5">
       <c r="A8" s="10" t="s">
@@ -2863,124 +2878,124 @@
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="13"/>
-      <c r="B12" s="25"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="28"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="13"/>
-      <c r="B13" s="25"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
       <c r="E14" s="20"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="E15" s="20"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="25"/>
+      <c r="B17" s="28"/>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="25"/>
+      <c r="B18" s="28"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="25"/>
+      <c r="B19" s="28"/>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="25"/>
+      <c r="B20" s="28"/>
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="25"/>
+      <c r="B21" s="28"/>
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="25"/>
+      <c r="B22" s="28"/>
       <c r="E22" s="20"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="28"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="28"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" ht="25.5" customHeight="1" spans="2:2">
-      <c r="B27" s="25"/>
+      <c r="B27" s="28"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
     </row>
     <row r="29" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" ht="21" customHeight="1" spans="2:2">
-      <c r="B30" s="25"/>
+      <c r="B30" s="28"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="25"/>
+      <c r="B31" s="28"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="25"/>
+      <c r="B32" s="28"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="25"/>
+      <c r="B33" s="28"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="25"/>
+      <c r="B34" s="28"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="25"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="25"/>
+      <c r="B36" s="28"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="25"/>
+      <c r="B37" s="28"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="25"/>
+      <c r="B38" s="28"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="25"/>
+      <c r="B39" s="28"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="25"/>
+      <c r="B40" s="28"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="25"/>
+      <c r="B41" s="28"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="25"/>
+      <c r="B42" s="28"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="25"/>
+      <c r="B43" s="28"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="25"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="25"/>
+      <c r="B45" s="28"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="25"/>
+      <c r="B46" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3008,7 +3023,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3017,7 +3032,7 @@
     <col min="2" max="2" width="66" style="22" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="22" customWidth="1"/>
     <col min="4" max="4" width="9" style="22" customWidth="1"/>
-    <col min="5" max="5" width="56.25" style="27" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="30" customWidth="1"/>
     <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
@@ -3073,7 +3088,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="13"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="38" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3118,12 +3133,12 @@
     </row>
     <row r="8" ht="15.95" customHeight="1" spans="1:5">
       <c r="A8" s="13"/>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:5">
       <c r="A9" s="10" t="s">
@@ -3144,133 +3159,133 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="20"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="14.25" spans="2:5">
-      <c r="B12" s="30"/>
-      <c r="E12" s="23"/>
+      <c r="B12" s="33"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" ht="14.25" spans="2:5">
-      <c r="B13" s="30"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="33"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" ht="14.25" spans="2:2">
-      <c r="B14" s="30"/>
+      <c r="B14" s="33"/>
     </row>
     <row r="15" ht="14.25" spans="2:5">
-      <c r="B15" s="30"/>
-      <c r="E15" s="23"/>
+      <c r="B15" s="33"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" ht="14.25" spans="2:5">
-      <c r="B16" s="30"/>
-      <c r="E16" s="23"/>
+      <c r="B16" s="33"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" ht="14.25" spans="2:5">
-      <c r="B17" s="30"/>
-      <c r="E17" s="23"/>
+      <c r="B17" s="33"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" ht="14.25" spans="2:5">
-      <c r="B18" s="30"/>
-      <c r="E18" s="23"/>
+      <c r="B18" s="33"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" ht="14.25" spans="2:5">
-      <c r="B19" s="30"/>
-      <c r="E19" s="23"/>
+      <c r="B19" s="33"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" ht="14.25" spans="2:5">
-      <c r="B20" s="30"/>
-      <c r="E20" s="23"/>
+      <c r="B20" s="33"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" ht="14.25" spans="2:5">
-      <c r="B21" s="30"/>
-      <c r="E21" s="23"/>
+      <c r="B21" s="33"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" ht="14.25" spans="2:5">
-      <c r="B22" s="30"/>
-      <c r="E22" s="23"/>
+      <c r="B22" s="33"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" ht="14.25" spans="2:5">
-      <c r="B23" s="30"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="33"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" ht="14.25" spans="2:5">
-      <c r="B24" s="30"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="33"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B25" s="30"/>
-      <c r="E25" s="28"/>
+      <c r="B25" s="33"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" ht="14.25" spans="2:5">
-      <c r="B26" s="30"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="33"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B27" s="30"/>
+      <c r="B27" s="33"/>
     </row>
     <row r="28" ht="21" customHeight="1" spans="2:2">
-      <c r="B28" s="30"/>
+      <c r="B28" s="33"/>
     </row>
     <row r="29" ht="14.25" spans="2:2">
-      <c r="B29" s="30"/>
+      <c r="B29" s="33"/>
     </row>
     <row r="30" ht="14.25" spans="2:2">
-      <c r="B30" s="30"/>
+      <c r="B30" s="33"/>
     </row>
     <row r="31" ht="14.25" spans="2:2">
-      <c r="B31" s="30"/>
+      <c r="B31" s="33"/>
     </row>
     <row r="32" ht="14.25" spans="2:2">
-      <c r="B32" s="30"/>
+      <c r="B32" s="33"/>
     </row>
     <row r="33" ht="14.25" spans="2:2">
-      <c r="B33" s="30"/>
+      <c r="B33" s="33"/>
     </row>
     <row r="34" ht="14.25" spans="2:2">
-      <c r="B34" s="30"/>
+      <c r="B34" s="33"/>
     </row>
     <row r="35" ht="14.25" spans="2:2">
-      <c r="B35" s="30"/>
+      <c r="B35" s="33"/>
     </row>
     <row r="36" ht="14.25" spans="2:2">
-      <c r="B36" s="30"/>
+      <c r="B36" s="33"/>
     </row>
     <row r="37" ht="14.25" spans="2:2">
-      <c r="B37" s="30"/>
+      <c r="B37" s="33"/>
     </row>
     <row r="38" ht="14.25" spans="2:2">
-      <c r="B38" s="30"/>
+      <c r="B38" s="33"/>
     </row>
     <row r="39" ht="14.25" spans="2:2">
-      <c r="B39" s="30"/>
+      <c r="B39" s="33"/>
     </row>
     <row r="40" ht="14.25" spans="2:2">
-      <c r="B40" s="30"/>
+      <c r="B40" s="33"/>
     </row>
     <row r="41" ht="14.25" spans="2:2">
-      <c r="B41" s="30"/>
+      <c r="B41" s="33"/>
     </row>
     <row r="42" ht="14.25" spans="2:2">
-      <c r="B42" s="30"/>
+      <c r="B42" s="33"/>
     </row>
     <row r="43" ht="14.25" spans="2:2">
-      <c r="B43" s="30"/>
+      <c r="B43" s="33"/>
     </row>
     <row r="44" ht="14.25" spans="2:2">
-      <c r="B44" s="30"/>
+      <c r="B44" s="33"/>
     </row>
     <row r="45" ht="14.25" spans="2:2">
-      <c r="B45" s="30"/>
+      <c r="B45" s="33"/>
     </row>
     <row r="46" ht="14.25" spans="2:2">
-      <c r="B46" s="30"/>
+      <c r="B46" s="33"/>
     </row>
     <row r="47" ht="14.25" spans="2:2">
-      <c r="B47" s="30"/>
+      <c r="B47" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3362,16 +3377,16 @@
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:5">
       <c r="A5" s="13"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="35" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3384,7 +3399,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" s="31" customFormat="1" ht="21" customHeight="1" spans="1:5">
+    <row r="7" s="34" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>39</v>
       </c>
@@ -3400,136 +3415,136 @@
       <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="20"/>
     </row>
     <row r="10" customHeight="1" spans="2:2">
-      <c r="B10" s="25"/>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="25"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="25"/>
+      <c r="B12" s="28"/>
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="25"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="28"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="25"/>
+      <c r="B14" s="28"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="E15" s="20"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="25"/>
+      <c r="B17" s="28"/>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="25"/>
+      <c r="B18" s="28"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="25"/>
+      <c r="B19" s="28"/>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="25"/>
+      <c r="B20" s="28"/>
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="25"/>
+      <c r="B21" s="28"/>
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="25"/>
+      <c r="B22" s="28"/>
       <c r="E22" s="20"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="25"/>
+      <c r="B23" s="28"/>
       <c r="E23" s="20"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="28"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="28"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="25"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="28"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B27" s="25"/>
+      <c r="B27" s="28"/>
     </row>
     <row r="28" ht="21" customHeight="1" spans="2:2">
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="25"/>
+      <c r="B30" s="28"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="25"/>
+      <c r="B31" s="28"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="25"/>
+      <c r="B32" s="28"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="25"/>
+      <c r="B33" s="28"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="25"/>
+      <c r="B34" s="28"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="25"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="25"/>
+      <c r="B36" s="28"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="25"/>
+      <c r="B37" s="28"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="25"/>
+      <c r="B38" s="28"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="25"/>
+      <c r="B39" s="28"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="25"/>
+      <c r="B40" s="28"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="25"/>
+      <c r="B41" s="28"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="25"/>
+      <c r="B42" s="28"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="25"/>
+      <c r="B43" s="28"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="25"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="25"/>
+      <c r="B45" s="28"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="25"/>
+      <c r="B46" s="28"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="25"/>
+      <c r="B47" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3552,10 +3567,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3564,7 +3579,7 @@
     <col min="2" max="2" width="66" style="22" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="22" customWidth="1"/>
     <col min="4" max="4" width="9" style="22" customWidth="1"/>
-    <col min="5" max="5" width="56.25" style="27" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="30" customWidth="1"/>
     <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
@@ -3693,16 +3708,16 @@
       <c r="B13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3710,7 +3725,7 @@
       <c r="B15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3718,78 +3733,79 @@
       <c r="B16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" ht="14.25" spans="2:5">
-      <c r="B17" s="21" t="s">
+      <c r="E17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="28"/>
     </row>
     <row r="18" ht="14.25" spans="2:5">
       <c r="B18" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" ht="14.25" spans="2:5">
       <c r="B19" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>55</v>
-      </c>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="27" t="s">
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B21" s="21" t="s">
+      <c r="E21" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="27" t="s">
+    </row>
+    <row r="22" ht="25.5" customHeight="1" spans="2:5">
+      <c r="B22" s="21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="21" t="s">
+      <c r="E22" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="27" t="s">
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B23" s="21" t="s">
+      <c r="E23" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="27" t="s">
+    </row>
+    <row r="24" ht="17.25" customHeight="1" spans="2:5">
+      <c r="B24" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" ht="21" customHeight="1" spans="2:5">
-      <c r="B24" s="21" t="s">
+      <c r="E24" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="27" t="s">
+    </row>
+    <row r="25" ht="21" customHeight="1" spans="2:5">
+      <c r="B25" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="21" t="s">
-        <v>45</v>
+      <c r="E25" s="30" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="21" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:2">
@@ -3814,7 +3830,7 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="21" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -3822,16 +3838,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:2">
       <c r="B33" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="21" t="s">
+      <c r="E34" s="30" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3840,20 +3856,25 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="2:2">
-      <c r="B36" s="30"/>
+    <row r="36" spans="2:2">
+      <c r="B36" s="21" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" ht="14.25" spans="2:2">
-      <c r="B37" s="30"/>
+      <c r="B37" s="33"/>
     </row>
     <row r="38" ht="14.25" spans="2:2">
-      <c r="B38" s="30"/>
+      <c r="B38" s="33"/>
     </row>
     <row r="39" ht="14.25" spans="2:2">
-      <c r="B39" s="30"/>
+      <c r="B39" s="33"/>
     </row>
     <row r="40" ht="14.25" spans="2:2">
-      <c r="B40" s="30"/>
+      <c r="B40" s="33"/>
+    </row>
+    <row r="41" ht="14.25" spans="2:2">
+      <c r="B41" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3878,10 +3899,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -3899,7 +3920,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -3910,7 +3931,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3918,7 +3939,7 @@
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>41</v>
@@ -3988,127 +4009,136 @@
     <row r="11" spans="1:3">
       <c r="A11" s="13"/>
       <c r="B11" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="13"/>
       <c r="B12" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" ht="13.5" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="13"/>
       <c r="B13" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" ht="13.5" spans="1:5">
-      <c r="A14" s="24"/>
-      <c r="B14" s="21" t="s">
-        <v>81</v>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="27"/>
       <c r="B15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="25"/>
+      <c r="B16" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="25"/>
+      <c r="B17" s="28"/>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="25"/>
+      <c r="B18" s="28"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="25"/>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B20" s="25"/>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="25"/>
-      <c r="E21" s="26"/>
-    </row>
-    <row r="22" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B22" s="25"/>
-    </row>
-    <row r="23" ht="21" customHeight="1" spans="2:2">
-      <c r="B23" s="25"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="28"/>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" ht="25.5" customHeight="1" spans="2:5">
+      <c r="B21" s="28"/>
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="28"/>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" ht="17.25" customHeight="1" spans="2:2">
+      <c r="B23" s="28"/>
+    </row>
+    <row r="24" ht="21" customHeight="1" spans="2:2">
+      <c r="B24" s="28"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="25"/>
+      <c r="B25" s="28"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="25"/>
+      <c r="B27" s="28"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="25"/>
+      <c r="B30" s="28"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="25"/>
+      <c r="B31" s="28"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="25"/>
+      <c r="B32" s="28"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="25"/>
+      <c r="B33" s="28"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="25"/>
+      <c r="B34" s="28"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="25"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="25"/>
+      <c r="B36" s="28"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="25"/>
+      <c r="B37" s="28"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="25"/>
+      <c r="B38" s="28"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="25"/>
+      <c r="B39" s="28"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="25"/>
+      <c r="B40" s="28"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="25"/>
+      <c r="B41" s="28"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="25"/>
+      <c r="B42" s="28"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4119,7 +4149,7 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A6:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" display="    &quot;pic&quot;:&quot;http://11211&quot;," tooltip="http://0.0.43.203/"/>
